--- a/testData/Flipkart_TestData.xlsx
+++ b/testData/Flipkart_TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiranjeevi_Chiranje\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\FlipkartFramework\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F2D449B-7A87-4438-9165-8C4523EB735F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B1526C-1668-4BA6-926F-B45711B56959}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{3DBD3755-0E99-4E02-B91B-3621F80191C8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>ProductName</t>
   </si>
@@ -46,6 +46,42 @@
   </si>
   <si>
     <t>camera</t>
+  </si>
+  <si>
+    <t>CustomerName</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>AddressArea</t>
+  </si>
+  <si>
+    <t>cityOrTownOrDist</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>customer1</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>BTM</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
   </si>
 </sst>
 </file>
@@ -102,10 +138,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E71948D-8202-49BB-BF83-D31E2DF29DF7}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -431,9 +468,13 @@
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -443,8 +484,29 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>9986208660</v>
       </c>
@@ -453,6 +515,27 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2213131311</v>
+      </c>
+      <c r="F2" s="2">
+        <v>560029</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
